--- a/Data Sources/MANUAL/OFGEM RHIDom.xlsx
+++ b/Data Sources/MANUAL/OFGEM RHIDom.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899D4291-C78D-4E38-91A9-3C52895D75DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1049EC7-5FD3-42CB-BDC9-C9A3E6B3B321}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>South West Scotland</t>
-  </si>
-  <si>
     <t>East Scotland</t>
   </si>
   <si>
@@ -42,9 +48,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Unkown</t>
-  </si>
-  <si>
     <t>ASHP</t>
   </si>
   <si>
@@ -58,6 +61,12 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Scotland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Central Scotland </t>
   </si>
 </sst>
 </file>
@@ -378,154 +387,157 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4100</v>
+        <v>1417</v>
       </c>
       <c r="C2">
-        <v>1080</v>
+        <v>875</v>
       </c>
       <c r="D2">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="E2">
-        <v>189</v>
+        <v>382</v>
       </c>
       <c r="F2">
-        <v>5732</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1870</v>
+        <v>3948</v>
       </c>
       <c r="C3">
-        <v>1458</v>
+        <v>1323</v>
       </c>
       <c r="D3">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E3">
-        <v>477</v>
+        <v>519</v>
       </c>
       <c r="F3">
-        <v>4296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2589</v>
+        <v>622</v>
       </c>
       <c r="C4">
-        <v>834</v>
+        <v>342</v>
       </c>
       <c r="D4">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="E4">
-        <v>393</v>
+        <v>166</v>
       </c>
       <c r="F4">
-        <v>4166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3704</v>
+      </c>
+      <c r="C5">
+        <v>1075</v>
+      </c>
+      <c r="D5">
+        <v>322</v>
+      </c>
+      <c r="E5">
+        <v>159</v>
+      </c>
+      <c r="F5">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>342</v>
+      </c>
+      <c r="C6">
+        <v>141</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>591</v>
-      </c>
-      <c r="C5">
-        <v>378</v>
-      </c>
-      <c r="D5">
-        <v>260</v>
-      </c>
-      <c r="E5">
-        <v>174</v>
-      </c>
-      <c r="F5">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f>B7-SUM(B2:B5)</f>
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:F6" si="0">C7-SUM(C2:C5)</f>
-        <v>9</v>
-      </c>
-      <c r="D6">
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>10033</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:F7" si="0">SUM(C2:C6)</f>
+        <v>3756</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
+        <v>1530</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E2:E6)</f>
+        <v>1258</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>9158</v>
-      </c>
-      <c r="C7">
-        <v>3759</v>
-      </c>
-      <c r="D7">
-        <v>1464</v>
-      </c>
-      <c r="E7">
-        <v>1234</v>
-      </c>
-      <c r="F7">
-        <v>15615</v>
+        <v>16577</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/OFGEM RHIDom.xlsx
+++ b/Data Sources/MANUAL/OFGEM RHIDom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24322"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1049EC7-5FD3-42CB-BDC9-C9A3E6B3B321}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D72814-054A-4218-AD8C-EF84D6067032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,19 +420,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1417</v>
+        <v>1508</v>
       </c>
       <c r="C2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D2">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="E2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F2">
-        <v>3088</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -440,19 +440,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3948</v>
+        <v>4146</v>
       </c>
       <c r="C3">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="D3">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E3">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F3">
-        <v>6276</v>
+        <v>6472</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -460,19 +460,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="C4">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D4">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E4">
         <v>166</v>
       </c>
       <c r="F4">
-        <v>1386</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -480,19 +480,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3704</v>
+        <v>3754</v>
       </c>
       <c r="C5">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="D5">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E5">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5">
-        <v>5260</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -500,19 +500,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="C6">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>567</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -521,23 +521,23 @@
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>10033</v>
+        <v>10430</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:F7" si="0">SUM(C2:C6)</f>
-        <v>3756</v>
+        <v>3742</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1530</v>
+        <v>1561</v>
       </c>
       <c r="E7">
         <f>SUM(E2:E6)</f>
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>16577</v>
+        <v>16989</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/OFGEM RHIDom.xlsx
+++ b/Data Sources/MANUAL/OFGEM RHIDom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D72814-054A-4218-AD8C-EF84D6067032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0522E3C-22E4-4C56-9B95-2076810025FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,19 +420,20 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1508</v>
+        <v>1587</v>
       </c>
       <c r="C2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F2">
-        <v>3194</v>
+        <f>SUM(B2:E2)</f>
+        <v>3279</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -440,19 +441,20 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4146</v>
+        <v>4342</v>
       </c>
       <c r="C3">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="D3">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="E3">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F3">
-        <v>6472</v>
+        <f t="shared" ref="F3:F6" si="0">SUM(B3:E3)</f>
+        <v>6669</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -460,19 +462,20 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>649</v>
+        <v>684</v>
       </c>
       <c r="C4">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D4">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4">
-        <v>1418</v>
+        <f t="shared" si="0"/>
+        <v>1456</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -480,19 +483,20 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3754</v>
+        <v>3812</v>
       </c>
       <c r="C5">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D5">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E5">
         <v>158</v>
       </c>
       <c r="F5">
-        <v>5307</v>
+        <f t="shared" si="0"/>
+        <v>5368</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -500,19 +504,20 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C6">
         <v>140</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>31</v>
       </c>
       <c r="F6">
-        <v>598</v>
+        <f t="shared" si="0"/>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -521,23 +526,23 @@
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>10430</v>
+        <v>10813</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:F7" si="0">SUM(C2:C6)</f>
-        <v>3742</v>
+        <f t="shared" ref="C7:F7" si="1">SUM(C2:C6)</f>
+        <v>3732</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1561</v>
+        <f t="shared" si="1"/>
+        <v>1592</v>
       </c>
       <c r="E7">
         <f>SUM(E2:E6)</f>
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>16989</v>
+        <f t="shared" si="1"/>
+        <v>17390</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/OFGEM RHIDom.xlsx
+++ b/Data Sources/MANUAL/OFGEM RHIDom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0522E3C-22E4-4C56-9B95-2076810025FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40EE0ED-0B0F-4C23-9A9B-308584F57C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H1" sqref="H1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,20 +420,20 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1587</v>
+        <v>1681</v>
       </c>
       <c r="C2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D2">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="E2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F2">
         <f>SUM(B2:E2)</f>
-        <v>3279</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -441,20 +441,20 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4342</v>
+        <v>4559</v>
       </c>
       <c r="C3">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="D3">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="E3">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F6" si="0">SUM(B3:E3)</f>
-        <v>6669</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -462,20 +462,20 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>684</v>
+        <v>720</v>
       </c>
       <c r="C4">
         <v>342</v>
       </c>
       <c r="D4">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E4">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1456</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -483,20 +483,20 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3812</v>
+        <v>3931</v>
       </c>
       <c r="C5">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D5">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E5">
         <v>158</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>5368</v>
+        <v>5489</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -504,20 +504,20 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="C6">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D6">
         <v>59</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -526,23 +526,23 @@
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>10813</v>
+        <v>11296</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:F7" si="1">SUM(C2:C6)</f>
-        <v>3732</v>
+        <v>3719</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>1592</v>
+        <v>1624</v>
       </c>
       <c r="E7">
         <f>SUM(E2:E6)</f>
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>17390</v>
+        <v>17900</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/OFGEM RHIDom.xlsx
+++ b/Data Sources/MANUAL/OFGEM RHIDom.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40EE0ED-0B0F-4C23-9A9B-308584F57C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B3F909-535C-4C82-8C94-2256A566D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -387,15 +385,15 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -415,134 +413,134 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1681</v>
+        <v>2041</v>
       </c>
       <c r="C2">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="D2">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="E2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F2">
         <f>SUM(B2:E2)</f>
-        <v>3388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4559</v>
+        <v>5681</v>
       </c>
       <c r="C3">
-        <v>1305</v>
+        <v>1286</v>
       </c>
       <c r="D3">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="E3">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F6" si="0">SUM(B3:E3)</f>
-        <v>6892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>720</v>
+        <v>1970</v>
       </c>
       <c r="C4">
-        <v>342</v>
+        <v>507</v>
       </c>
       <c r="D4">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E4">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3931</v>
+        <v>4348</v>
       </c>
       <c r="C5">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D5">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="E5">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>5489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>405</v>
+        <v>575</v>
       </c>
       <c r="C6">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>11296</v>
+        <v>14615</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:F7" si="1">SUM(C2:C6)</f>
-        <v>3719</v>
+        <v>3874</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>1624</v>
+        <v>1817</v>
       </c>
       <c r="E7">
         <f>SUM(E2:E6)</f>
-        <v>1261</v>
+        <v>1393</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>17900</v>
+        <v>21699</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/OFGEM RHIDom.xlsx
+++ b/Data Sources/MANUAL/OFGEM RHIDom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B3F909-535C-4C82-8C94-2256A566D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16879EE1-2948-46C6-B6C8-DD12F9CC30CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,20 +418,20 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2041</v>
+        <v>2113</v>
       </c>
       <c r="C2">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D2">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="E2">
         <v>384</v>
       </c>
       <c r="F2">
         <f>SUM(B2:E2)</f>
-        <v>3833</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -439,20 +439,20 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5681</v>
+        <v>5848</v>
       </c>
       <c r="C3">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="D3">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="E3">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F6" si="0">SUM(B3:E3)</f>
-        <v>8051</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -460,20 +460,20 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1970</v>
+        <v>866</v>
       </c>
       <c r="C4">
-        <v>507</v>
+        <v>341</v>
       </c>
       <c r="D4">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="E4">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>3048</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -481,20 +481,20 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4348</v>
+        <v>4416</v>
       </c>
       <c r="C5">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D5">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="E5">
         <v>160</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>5951</v>
+        <v>6037</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -502,20 +502,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>575</v>
+        <v>764</v>
       </c>
       <c r="C6">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>816</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -524,23 +523,23 @@
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>14615</v>
+        <v>14007</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:F7" si="1">SUM(C2:C6)</f>
-        <v>3874</v>
+        <v>3689</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>1817</v>
+        <v>1907</v>
       </c>
       <c r="E7">
         <f>SUM(E2:E6)</f>
-        <v>1393</v>
+        <v>1291</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>21699</v>
+        <v>20894</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/OFGEM RHIDom.xlsx
+++ b/Data Sources/MANUAL/OFGEM RHIDom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16879EE1-2948-46C6-B6C8-DD12F9CC30CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F924A04-1CEE-41C0-AB33-CBAD594C6469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1005" windowWidth="30960" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -385,15 +378,15 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -413,54 +406,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E2">
         <v>384</v>
       </c>
       <c r="F2">
         <f>SUM(B2:E2)</f>
-        <v>3932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5848</v>
+        <v>5854</v>
       </c>
       <c r="C3">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="D3">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E3">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">SUM(B3:E3)</f>
-        <v>8231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F3:F5" si="0">SUM(B3:E3)</f>
+        <v>8232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>866</v>
+        <v>2030</v>
       </c>
       <c r="C4">
         <v>341</v>
@@ -473,10 +466,10 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -484,28 +477,28 @@
         <v>4416</v>
       </c>
       <c r="C5">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D5">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E5">
         <v>160</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>6037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="C6">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D6">
         <v>73</v>
@@ -517,29 +510,29 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>14007</v>
+        <v>15182</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:F7" si="1">SUM(C2:C6)</f>
-        <v>3689</v>
+        <v>3679</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="E7">
         <f>SUM(E2:E6)</f>
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>20894</v>
+        <v>22059</v>
       </c>
     </row>
   </sheetData>
